--- a/biology/Médecine/Association_médicale_mondiale/Association_médicale_mondiale.xlsx
+++ b/biology/Médecine/Association_médicale_mondiale/Association_médicale_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association Médicale Mondiale (AMM) est une organisation internationale de médecins. Elle a été fondée le 17 septembre 1947 et son premier président est le Pr. Eugène Marquis, président de la Confédération des syndicats médicaux français[1].
-En 2021, l'AMM représente 115 associations médicales nationales[2] représentant plus de 9 millions de membres[3] ainsi que 1467 members associés .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association Médicale Mondiale (AMM) est une organisation internationale de médecins. Elle a été fondée le 17 septembre 1947 et son premier président est le Pr. Eugène Marquis, président de la Confédération des syndicats médicaux français.
+En 2021, l'AMM représente 115 associations médicales nationales représentant plus de 9 millions de membres ainsi que 1467 members associés .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’AMM fournit à ses associations membres un forum où elles peuvent communiquer librement, coopérer activement, parvenir à  un consensus sur des normes de qualité en matière  d'éthique médicale et de compétence professionnelle et promouvoir la liberté professionnelle des médecins partout dans le monde. Avec ce partenariat, l'objectif de l’AMM est de contribuer à des soins médicaux de grande qualité et respectueux de l’être humain, au sein d’un environnement sain et d’améliorer ainsi la qualité de vie de tous.
-L'objectif de l’AMM est de servir l’humanité en tentant d’atteindre les plus hautes normes internationales en matière d’enseignement de la médecine, de science médicale, d’art médical, d’éthique médicale et de soins de santé pour tous[4].
+L'objectif de l’AMM est de servir l’humanité en tentant d’atteindre les plus hautes normes internationales en matière d’enseignement de la médecine, de science médicale, d’art médical, d’éthique médicale et de soins de santé pour tous.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire [5]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’AMM a été fondée le 18 septembre 1947, le jour où des médecins de 27 pays se réunirent à Paris pour la première assemblée générale de l’AMM. Cette organisation a pour point de départ le projet élaboré lors d’une réunion organisée à Londres en 1945, au siège de l’Association médicale britannique, à savoir créer une organisation médicale internationale destinée à remplacer l'Association professionnelle internationale des médecins dont les activités avaient été suspendues à cause de la Seconde Guerre mondiale.
 Pour faciliter le soutien financier de ses associations membres, le bureau exécutif, connu sous le nom de Conseil, créa en 1948 le Secrétariat de l’AMM à New York dont la mission fut d'établir des liens étroits avec les Nations unies et ses différentes agences. Le secrétariat de l’AMM demeura à New York jusqu’en 1974. Pour des raisons financières et afin d’être proche des organisations internationales basées à Genève (OMS, OIT, CII, AISS), il déménagea à Ferney-Voltaire, en France.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Structure [6]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’assemblée générale
 La principale instance décisionnaire de l’AMM est l’assemblée générale qui se réunit tous les ans. Elle se compose de délégations des associations membres nationales, des membres du bureau et des membres du Conseil de l’AMM ainsi que des représentants des membres associés (Les membres associés sont des médecins qui à titre individuel désirent rejoindre l’AMM).
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Membres [3]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le statut des membres de l’AMM est le suivant :
 Membres constituants
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Projets [7]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’AMM est engagée dans plusieurs domaines, principalement dans les suivants :
 Éthique
@@ -683,7 +705,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,7 +723,9 @@
           <t>Publications[8]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tous les documents politiques de l’AMM et les publications (certains dans plusieurs langues) sont disponibles en téléchargement gratuit sur son site Internet.
 En font partie :
@@ -720,7 +744,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -738,9 +762,11 @@
           <t>Relations officielles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>L'AMM est intégrée dans un réseau d'organisations allant de sociétés savantes et associations médicales à des organisations commerciales. N'étant pas exhaustive, cette liste donne une vision d'ensemble sur les partenaires officiels de l'AMM[9] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'AMM est intégrée dans un réseau d'organisations allant de sociétés savantes et associations médicales à des organisations commerciales. N'étant pas exhaustive, cette liste donne une vision d'ensemble sur les partenaires officiels de l'AMM :
 Centres académiques:
 Center for Global Health and Medical Diplomacy, University of North Florida on Medical leadership and Medical Diplomacy
 Center for the Study of International Medical Policies and Practices – CSIMPP, George-Mason-University, Fairfax, Virginia on Microbial resistance and development of public (health) policy
@@ -801,7 +827,7 @@
 SAARC (South Asian Association for Regional Cooperation) Medical Association
 South East Europe Media Forum – SEEMF
 Standing committee of European Physicians – CPME
-La principale mission de l’AMM étant de promouvoir la santé et le bien-être des médecins et des patients, l’Organisation Mondiale de la Santé est un acteur majeur pour nos relations extérieures. L’AMM coopère également avec de nombreuses autres organisations des NU et sur des programmes spécifiques en rapport avec les questions de santé ou avec des organisations dont les activités principales recoupent le secteur de la santé[10].
+La principale mission de l’AMM étant de promouvoir la santé et le bien-être des médecins et des patients, l’Organisation Mondiale de la Santé est un acteur majeur pour nos relations extérieures. L’AMM coopère également avec de nombreuses autres organisations des NU et sur des programmes spécifiques en rapport avec les questions de santé ou avec des organisations dont les activités principales recoupent le secteur de la santé.
 Programme commun des Nations unies sur le VIH/SIDA (NUSIDA)
 Organisation Internationale du Travail (OIT)
 Organisation Internationale pour les Migrations (OIM)
@@ -815,7 +841,7 @@
 Organisation Mondiale de la propriété intellectuelle
 Union Internationale des télécommunications
 Conseil des Droits De l’Homme des Nations unies
-Comité international de la médecine militaire (ICMM)[10]</t>
+Comité international de la médecine militaire (ICMM)</t>
         </is>
       </c>
     </row>
@@ -825,7 +851,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_mondiale</t>
+          <t>Association_médicale_mondiale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -843,12 +869,14 @@
           <t>Textes célèbres</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>La déclaration de Genève - Le « Serment d’Hippocrate moderne »[11]
-La déclaration d'Helsinki - Recherche médicale impliquant des sujets humains[12]
-La déclaration de Tokyo - Directives aux médecins pour la prévention de la Torture [13]
-La déclaration de Taipei - Recherche sur les Bases de données de Santé, les Big data et les Biobanques[14]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La déclaration de Genève - Le « Serment d’Hippocrate moderne »
+La déclaration d'Helsinki - Recherche médicale impliquant des sujets humains
+La déclaration de Tokyo - Directives aux médecins pour la prévention de la Torture 
+La déclaration de Taipei - Recherche sur les Bases de données de Santé, les Big data et les Biobanques</t>
         </is>
       </c>
     </row>
